--- a/data/trans_orig/P43E-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P43E-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20CDCA12-3F47-47A3-8248-C16F1C5F5B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDF9F963-5E7C-4F54-934B-23699A4D4582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{380181FE-8C6A-4C39-B847-A99B1263F6B8}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B5E1CDD5-E02C-4247-97E5-8601602D49CC}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="148">
   <si>
     <t>Población según el lugar donde le realizaron dicha citología vaginal en 2012 (Tasa respuesta: 31,77%)</t>
   </si>
@@ -232,121 +232,127 @@
     <t>15,65%</t>
   </si>
   <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
   </si>
   <si>
     <t>84,35%</t>
   </si>
   <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
   </si>
   <si>
     <t>20,48%</t>
   </si>
   <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>24,98%</t>
   </si>
   <si>
     <t>79,52%</t>
   </si>
   <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
   </si>
   <si>
     <t>20,0%</t>
   </si>
   <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
   </si>
   <si>
     <t>80,0%</t>
   </si>
   <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
   </si>
   <si>
     <t>15,21%</t>
   </si>
   <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
+    <t>12,08%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
   </si>
   <si>
     <t>84,79%</t>
   </si>
   <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
   </si>
   <si>
     <t>14,01%</t>
   </si>
   <si>
-    <t>10,12%</t>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>18,65%</t>
   </si>
   <si>
     <t>85,99%</t>
   </si>
   <si>
-    <t>89,88%</t>
+    <t>81,35%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
   </si>
   <si>
     <t>10,78%</t>
   </si>
   <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>14,82%</t>
   </si>
   <si>
     <t>89,22%</t>
   </si>
   <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
+    <t>85,18%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
   </si>
   <si>
     <t>16,39%</t>
   </si>
   <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>18,01%</t>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
   </si>
   <si>
     <t>83,61%</t>
   </si>
   <si>
-    <t>81,99%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
+    <t>81,96%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
   </si>
   <si>
     <t>Población según el lugar donde le realizaron dicha citología vaginal en 2023 (Tasa respuesta: 27,66%)</t>
@@ -355,127 +361,127 @@
     <t>35,69%</t>
   </si>
   <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
   </si>
   <si>
     <t>64,31%</t>
   </si>
   <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
   </si>
   <si>
     <t>24,74%</t>
   </si>
   <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>32,65%</t>
   </si>
   <si>
     <t>75,26%</t>
   </si>
   <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
+    <t>67,35%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
   </si>
   <si>
     <t>27,8%</t>
   </si>
   <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
+    <t>23,54%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
   </si>
   <si>
     <t>72,2%</t>
   </si>
   <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>76,46%</t>
   </si>
   <si>
     <t>29,53%</t>
   </si>
   <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>33,55%</t>
   </si>
   <si>
     <t>70,47%</t>
   </si>
   <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
+    <t>66,45%</t>
+  </si>
+  <si>
+    <t>74,73%</t>
   </si>
   <si>
     <t>22,17%</t>
   </si>
   <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
+    <t>18,38%</t>
+  </si>
+  <si>
+    <t>25,8%</t>
   </si>
   <si>
     <t>77,83%</t>
   </si>
   <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
+    <t>74,2%</t>
+  </si>
+  <si>
+    <t>81,62%</t>
   </si>
   <si>
     <t>15,51%</t>
   </si>
   <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>18,67%</t>
   </si>
   <si>
     <t>84,49%</t>
   </si>
   <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
+    <t>81,33%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
   </si>
   <si>
     <t>24,03%</t>
   </si>
   <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>26,04%</t>
   </si>
   <si>
     <t>75,97%</t>
   </si>
   <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
+    <t>73,96%</t>
+  </si>
+  <si>
+    <t>78,27%</t>
   </si>
 </sst>
 </file>
@@ -887,7 +893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C3AC0ED-252A-409D-9068-CC2328A8B362}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556C6CD5-8C93-4504-B936-76F9CCEDEAE8}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2064,7 +2070,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F409B2F9-1725-4659-962C-50776839A628}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EC7D90-3827-41B8-89F2-01AC5A648577}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2803,7 +2809,7 @@
         <v>88</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -2818,7 +2824,7 @@
         <v>88</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>51</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2846,13 +2852,13 @@
         <v>275874</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="M17" s="7">
         <v>240</v>
@@ -2861,13 +2867,13 @@
         <v>275874</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>53</v>
+        <v>91</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2946,13 +2952,13 @@
         <v>35782</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="M19" s="7">
         <v>30</v>
@@ -2961,13 +2967,13 @@
         <v>35782</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2995,13 +3001,13 @@
         <v>296206</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="M20" s="7">
         <v>253</v>
@@ -3010,13 +3016,13 @@
         <v>296206</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3095,13 +3101,13 @@
         <v>353039</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="M22" s="7">
         <v>329</v>
@@ -3110,13 +3116,13 @@
         <v>353039</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3144,13 +3150,13 @@
         <v>1800635</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="M23" s="7">
         <v>1711</v>
@@ -3159,13 +3165,13 @@
         <v>1800635</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3241,7 +3247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E41B85-FE23-4CFE-AF5F-C44A9F5A87DF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EBEEC3-C604-45DC-BD2D-B74FFC0E98D6}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3258,7 +3264,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3378,13 +3384,13 @@
         <v>16967</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -3393,13 +3399,13 @@
         <v>16967</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3427,13 +3433,13 @@
         <v>30567</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M5" s="7">
         <v>19</v>
@@ -3442,13 +3448,13 @@
         <v>30567</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3527,13 +3533,13 @@
         <v>49852</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M7" s="7">
         <v>44</v>
@@ -3542,13 +3548,13 @@
         <v>49852</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,13 +3582,13 @@
         <v>151690</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="M8" s="7">
         <v>127</v>
@@ -3591,13 +3597,13 @@
         <v>151690</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3676,13 +3682,13 @@
         <v>75904</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M10" s="7">
         <v>109</v>
@@ -3691,13 +3697,13 @@
         <v>75904</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3725,13 +3731,13 @@
         <v>197163</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="M11" s="7">
         <v>285</v>
@@ -3740,13 +3746,13 @@
         <v>197163</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3825,13 +3831,13 @@
         <v>116157</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="M13" s="7">
         <v>179</v>
@@ -3840,13 +3846,13 @@
         <v>116157</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3874,13 +3880,13 @@
         <v>277234</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="M14" s="7">
         <v>408</v>
@@ -3889,13 +3895,13 @@
         <v>277234</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3974,13 +3980,13 @@
         <v>68459</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="M16" s="7">
         <v>110</v>
@@ -3989,13 +3995,13 @@
         <v>68459</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4023,13 +4029,13 @@
         <v>240345</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M17" s="7">
         <v>406</v>
@@ -4038,13 +4044,13 @@
         <v>240345</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4123,13 +4129,13 @@
         <v>60217</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>109</v>
@@ -4138,13 +4144,13 @@
         <v>60217</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4172,13 +4178,13 @@
         <v>328078</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="M20" s="7">
         <v>613</v>
@@ -4187,13 +4193,13 @@
         <v>328078</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4272,13 +4278,13 @@
         <v>387556</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="M22" s="7">
         <v>560</v>
@@ -4287,13 +4293,13 @@
         <v>387556</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4321,13 +4327,13 @@
         <v>1225078</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="M23" s="7">
         <v>1858</v>
@@ -4336,13 +4342,13 @@
         <v>1225078</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P43E-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P43E-Edad-trans_orig.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FDF9F963-5E7C-4F54-934B-23699A4D4582}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C00E9FE-8AA1-4BBC-9537-91543682B1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B5E1CDD5-E02C-4247-97E5-8601602D49CC}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{94195DAD-9321-40A8-AD25-B5C51C2E690A}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
-    <sheet name="2015" sheetId="3" r:id="rId2"/>
+    <sheet name="2016" sheetId="3" r:id="rId2"/>
     <sheet name="2023" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -79,10 +79,10 @@
     <t>21,85%</t>
   </si>
   <si>
-    <t>15,84%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>28,73%</t>
   </si>
   <si>
     <t>Servicio sanitario público</t>
@@ -91,10 +91,10 @@
     <t>78,15%</t>
   </si>
   <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>84,16%</t>
+    <t>71,27%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
   </si>
   <si>
     <t>100%</t>
@@ -106,19 +106,19 @@
     <t>26,87%</t>
   </si>
   <si>
-    <t>22,72%</t>
-  </si>
-  <si>
-    <t>31,05%</t>
+    <t>22,68%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
   </si>
   <si>
     <t>73,13%</t>
   </si>
   <si>
-    <t>68,95%</t>
-  </si>
-  <si>
-    <t>77,28%</t>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>77,32%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -127,19 +127,19 @@
     <t>26,46%</t>
   </si>
   <si>
-    <t>22,48%</t>
-  </si>
-  <si>
-    <t>30,15%</t>
+    <t>22,67%</t>
+  </si>
+  <si>
+    <t>30,31%</t>
   </si>
   <si>
     <t>73,54%</t>
   </si>
   <si>
-    <t>69,85%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
+    <t>69,69%</t>
+  </si>
+  <si>
+    <t>77,33%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -148,19 +148,19 @@
     <t>24,32%</t>
   </si>
   <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>28,76%</t>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>28,68%</t>
   </si>
   <si>
     <t>75,68%</t>
   </si>
   <si>
-    <t>71,24%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
+    <t>71,32%</t>
+  </si>
+  <si>
+    <t>80,21%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -172,13 +172,13 @@
     <t>14,04%</t>
   </si>
   <si>
-    <t>23,57%</t>
+    <t>23,87%</t>
   </si>
   <si>
     <t>81,22%</t>
   </si>
   <si>
-    <t>76,43%</t>
+    <t>76,13%</t>
   </si>
   <si>
     <t>85,96%</t>
@@ -190,61 +190,61 @@
     <t>13,0%</t>
   </si>
   <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>18,3%</t>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
   </si>
   <si>
     <t>87,0%</t>
   </si>
   <si>
-    <t>81,7%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
   </si>
   <si>
     <t>23,01%</t>
   </si>
   <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
+    <t>21,19%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
   </si>
   <si>
     <t>76,99%</t>
   </si>
   <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>78,81%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
-    <t>Población según el lugar donde le realizaron dicha citología vaginal en 2015 (Tasa respuesta: 31,05%)</t>
+    <t>Población según el lugar donde le realizaron dicha citología vaginal en 2016 (Tasa respuesta: 31,05%)</t>
   </si>
   <si>
     <t>15,65%</t>
   </si>
   <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>21,46%</t>
   </si>
   <si>
     <t>84,35%</t>
   </si>
   <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
+    <t>78,54%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
   </si>
   <si>
     <t>20,48%</t>
@@ -253,13 +253,13 @@
     <t>16,51%</t>
   </si>
   <si>
-    <t>24,98%</t>
+    <t>24,5%</t>
   </si>
   <si>
     <t>79,52%</t>
   </si>
   <si>
-    <t>75,02%</t>
+    <t>75,5%</t>
   </si>
   <si>
     <t>83,49%</t>
@@ -268,91 +268,91 @@
     <t>20,0%</t>
   </si>
   <si>
-    <t>16,49%</t>
-  </si>
-  <si>
-    <t>23,65%</t>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
   </si>
   <si>
     <t>80,0%</t>
   </si>
   <si>
-    <t>76,35%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
+    <t>76,31%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
   </si>
   <si>
     <t>15,21%</t>
   </si>
   <si>
-    <t>12,08%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
   </si>
   <si>
     <t>84,79%</t>
   </si>
   <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
+    <t>81,08%</t>
+  </si>
+  <si>
+    <t>87,91%</t>
   </si>
   <si>
     <t>14,01%</t>
   </si>
   <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>18,65%</t>
+    <t>9,76%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
   </si>
   <si>
     <t>85,99%</t>
   </si>
   <si>
-    <t>81,35%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>90,24%</t>
   </si>
   <si>
     <t>10,78%</t>
   </si>
   <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>14,82%</t>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>14,92%</t>
   </si>
   <si>
     <t>89,22%</t>
   </si>
   <si>
-    <t>85,18%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>92,77%</t>
   </si>
   <si>
     <t>16,39%</t>
   </si>
   <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
+    <t>14,91%</t>
+  </si>
+  <si>
+    <t>18,25%</t>
   </si>
   <si>
     <t>83,61%</t>
   </si>
   <si>
-    <t>81,96%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
+    <t>81,75%</t>
+  </si>
+  <si>
+    <t>85,09%</t>
   </si>
   <si>
     <t>Población según el lugar donde le realizaron dicha citología vaginal en 2023 (Tasa respuesta: 27,66%)</t>
@@ -893,7 +893,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{556C6CD5-8C93-4504-B936-76F9CCEDEAE8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C07D59A1-6017-45C3-8C6F-A885712E1B6E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2070,7 +2070,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6EC7D90-3827-41B8-89F2-01AC5A648577}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B78F5F8-25CC-49CD-B51E-3DA7E2D03786}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3247,7 +3247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02EBEEC3-C604-45DC-BD2D-B74FFC0E98D6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C6BD4A8-3BA4-4BFB-9A34-A6C2BC171500}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/data/trans_orig/P43E-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P43E-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2C00E9FE-8AA1-4BBC-9537-91543682B1A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{2282FEA0-C486-4874-BF59-41F7B8739CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{94195DAD-9321-40A8-AD25-B5C51C2E690A}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0A79BAFE-EBDF-4721-BFB9-A405374C3545}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="146">
   <si>
     <t>Población según el lugar donde le realizaron dicha citología vaginal en 2012 (Tasa respuesta: 31,77%)</t>
   </si>
@@ -79,10 +79,10 @@
     <t>21,85%</t>
   </si>
   <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>28,73%</t>
+    <t>15,84%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
   </si>
   <si>
     <t>Servicio sanitario público</t>
@@ -91,10 +91,10 @@
     <t>78,15%</t>
   </si>
   <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>84,16%</t>
   </si>
   <si>
     <t>100%</t>
@@ -106,19 +106,19 @@
     <t>26,87%</t>
   </si>
   <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
+    <t>22,72%</t>
+  </si>
+  <si>
+    <t>31,05%</t>
   </si>
   <si>
     <t>73,13%</t>
   </si>
   <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
+    <t>68,95%</t>
+  </si>
+  <si>
+    <t>77,28%</t>
   </si>
   <si>
     <t>35/44</t>
@@ -127,19 +127,19 @@
     <t>26,46%</t>
   </si>
   <si>
-    <t>22,67%</t>
-  </si>
-  <si>
-    <t>30,31%</t>
+    <t>22,48%</t>
+  </si>
+  <si>
+    <t>30,15%</t>
   </si>
   <si>
     <t>73,54%</t>
   </si>
   <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
+    <t>69,85%</t>
+  </si>
+  <si>
+    <t>77,52%</t>
   </si>
   <si>
     <t>45/54</t>
@@ -148,19 +148,19 @@
     <t>24,32%</t>
   </si>
   <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>28,68%</t>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>28,76%</t>
   </si>
   <si>
     <t>75,68%</t>
   </si>
   <si>
-    <t>71,32%</t>
-  </si>
-  <si>
-    <t>80,21%</t>
+    <t>71,24%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
   </si>
   <si>
     <t>55/64</t>
@@ -172,13 +172,13 @@
     <t>14,04%</t>
   </si>
   <si>
-    <t>23,87%</t>
+    <t>23,57%</t>
   </si>
   <si>
     <t>81,22%</t>
   </si>
   <si>
-    <t>76,13%</t>
+    <t>76,43%</t>
   </si>
   <si>
     <t>85,96%</t>
@@ -190,37 +190,37 @@
     <t>13,0%</t>
   </si>
   <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
+    <t>9,24%</t>
+  </si>
+  <si>
+    <t>18,3%</t>
   </si>
   <si>
     <t>87,0%</t>
   </si>
   <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
   </si>
   <si>
     <t>23,01%</t>
   </si>
   <si>
-    <t>21,19%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
   </si>
   <si>
     <t>76,99%</t>
   </si>
   <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>78,81%</t>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -232,127 +232,121 @@
     <t>15,65%</t>
   </si>
   <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>21,46%</t>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
   </si>
   <si>
     <t>84,35%</t>
   </si>
   <si>
-    <t>78,54%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
   </si>
   <si>
     <t>20,48%</t>
   </si>
   <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>24,5%</t>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
   </si>
   <si>
     <t>79,52%</t>
   </si>
   <si>
-    <t>75,5%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
   </si>
   <si>
     <t>20,0%</t>
   </si>
   <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
   </si>
   <si>
     <t>80,0%</t>
   </si>
   <si>
-    <t>76,31%</t>
-  </si>
-  <si>
-    <t>83,35%</t>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
   </si>
   <si>
     <t>15,21%</t>
   </si>
   <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
   </si>
   <si>
     <t>84,79%</t>
   </si>
   <si>
-    <t>81,08%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
   </si>
   <si>
     <t>14,01%</t>
   </si>
   <si>
-    <t>9,76%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
+    <t>10,12%</t>
   </si>
   <si>
     <t>85,99%</t>
   </si>
   <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>90,24%</t>
+    <t>89,88%</t>
   </si>
   <si>
     <t>10,78%</t>
   </si>
   <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>14,92%</t>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
   </si>
   <si>
     <t>89,22%</t>
   </si>
   <si>
-    <t>85,08%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
   </si>
   <si>
     <t>16,39%</t>
   </si>
   <si>
-    <t>14,91%</t>
-  </si>
-  <si>
-    <t>18,25%</t>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>18,01%</t>
   </si>
   <si>
     <t>83,61%</t>
   </si>
   <si>
-    <t>81,75%</t>
-  </si>
-  <si>
-    <t>85,09%</t>
+    <t>81,99%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
   </si>
   <si>
     <t>Población según el lugar donde le realizaron dicha citología vaginal en 2023 (Tasa respuesta: 27,66%)</t>
@@ -361,127 +355,127 @@
     <t>35,69%</t>
   </si>
   <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>58,49%</t>
+    <t>18,49%</t>
+  </si>
+  <si>
+    <t>58,45%</t>
   </si>
   <si>
     <t>64,31%</t>
   </si>
   <si>
-    <t>41,51%</t>
-  </si>
-  <si>
-    <t>81,69%</t>
+    <t>41,55%</t>
+  </si>
+  <si>
+    <t>81,51%</t>
   </si>
   <si>
     <t>24,74%</t>
   </si>
   <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>32,65%</t>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
   </si>
   <si>
     <t>75,26%</t>
   </si>
   <si>
-    <t>67,35%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
+    <t>67,73%</t>
+  </si>
+  <si>
+    <t>83,05%</t>
   </si>
   <si>
     <t>27,8%</t>
   </si>
   <si>
-    <t>23,54%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>32,63%</t>
   </si>
   <si>
     <t>72,2%</t>
   </si>
   <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>76,46%</t>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>76,52%</t>
   </si>
   <si>
     <t>29,53%</t>
   </si>
   <si>
-    <t>25,27%</t>
-  </si>
-  <si>
-    <t>33,55%</t>
+    <t>25,35%</t>
+  </si>
+  <si>
+    <t>33,65%</t>
   </si>
   <si>
     <t>70,47%</t>
   </si>
   <si>
-    <t>66,45%</t>
-  </si>
-  <si>
-    <t>74,73%</t>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>74,65%</t>
   </si>
   <si>
     <t>22,17%</t>
   </si>
   <si>
-    <t>18,38%</t>
-  </si>
-  <si>
-    <t>25,8%</t>
+    <t>18,55%</t>
+  </si>
+  <si>
+    <t>26,08%</t>
   </si>
   <si>
     <t>77,83%</t>
   </si>
   <si>
-    <t>74,2%</t>
-  </si>
-  <si>
-    <t>81,62%</t>
+    <t>73,92%</t>
+  </si>
+  <si>
+    <t>81,45%</t>
   </si>
   <si>
     <t>15,51%</t>
   </si>
   <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>18,67%</t>
+    <t>12,84%</t>
+  </si>
+  <si>
+    <t>18,34%</t>
   </si>
   <si>
     <t>84,49%</t>
   </si>
   <si>
-    <t>81,33%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
+    <t>81,66%</t>
+  </si>
+  <si>
+    <t>87,16%</t>
   </si>
   <si>
     <t>24,03%</t>
   </si>
   <si>
-    <t>21,73%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
   </si>
   <si>
     <t>75,97%</t>
   </si>
   <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>78,27%</t>
+    <t>73,99%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
   </si>
 </sst>
 </file>
@@ -893,7 +887,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C07D59A1-6017-45C3-8C6F-A885712E1B6E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E89FFA2F-5E7A-40EC-8491-808722F89487}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2070,7 +2064,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B78F5F8-25CC-49CD-B51E-3DA7E2D03786}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F2B9C1-1267-4B25-95BE-EDBB645E8C5B}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2809,7 +2803,7 @@
         <v>88</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -2824,7 +2818,7 @@
         <v>88</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>89</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2852,13 +2846,13 @@
         <v>275874</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="M17" s="7">
         <v>240</v>
@@ -2867,13 +2861,13 @@
         <v>275874</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2952,13 +2946,13 @@
         <v>35782</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="M19" s="7">
         <v>30</v>
@@ -2967,13 +2961,13 @@
         <v>35782</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3001,13 +2995,13 @@
         <v>296206</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="M20" s="7">
         <v>253</v>
@@ -3016,13 +3010,13 @@
         <v>296206</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3101,13 +3095,13 @@
         <v>353039</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M22" s="7">
         <v>329</v>
@@ -3116,13 +3110,13 @@
         <v>353039</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3150,13 +3144,13 @@
         <v>1800635</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>104</v>
       </c>
       <c r="M23" s="7">
         <v>1711</v>
@@ -3165,13 +3159,13 @@
         <v>1800635</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3247,7 +3241,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C6BD4A8-3BA4-4BFB-9A34-A6C2BC171500}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8C08DA-0518-4FDA-804E-3270184C4621}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3264,7 +3258,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3384,13 +3378,13 @@
         <v>16967</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -3399,13 +3393,13 @@
         <v>16967</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3433,13 +3427,13 @@
         <v>30567</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M5" s="7">
         <v>19</v>
@@ -3448,13 +3442,13 @@
         <v>30567</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3533,13 +3527,13 @@
         <v>49852</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M7" s="7">
         <v>44</v>
@@ -3548,13 +3542,13 @@
         <v>49852</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3582,13 +3576,13 @@
         <v>151690</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="M8" s="7">
         <v>127</v>
@@ -3597,13 +3591,13 @@
         <v>151690</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3682,13 +3676,13 @@
         <v>75904</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M10" s="7">
         <v>109</v>
@@ -3697,13 +3691,13 @@
         <v>75904</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3731,13 +3725,13 @@
         <v>197163</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M11" s="7">
         <v>285</v>
@@ -3746,13 +3740,13 @@
         <v>197163</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3831,13 +3825,13 @@
         <v>116157</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M13" s="7">
         <v>179</v>
@@ -3846,13 +3840,13 @@
         <v>116157</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3880,13 +3874,13 @@
         <v>277234</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>129</v>
       </c>
       <c r="M14" s="7">
         <v>408</v>
@@ -3895,13 +3889,13 @@
         <v>277234</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3980,13 +3974,13 @@
         <v>68459</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="M16" s="7">
         <v>110</v>
@@ -3995,13 +3989,13 @@
         <v>68459</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4029,13 +4023,13 @@
         <v>240345</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M17" s="7">
         <v>406</v>
@@ -4044,13 +4038,13 @@
         <v>240345</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4129,13 +4123,13 @@
         <v>60217</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M19" s="7">
         <v>109</v>
@@ -4144,13 +4138,13 @@
         <v>60217</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4178,13 +4172,13 @@
         <v>328078</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>141</v>
       </c>
       <c r="M20" s="7">
         <v>613</v>
@@ -4193,13 +4187,13 @@
         <v>328078</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>139</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4278,13 +4272,13 @@
         <v>387556</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M22" s="7">
         <v>560</v>
@@ -4293,13 +4287,13 @@
         <v>387556</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4327,13 +4321,13 @@
         <v>1225078</v>
       </c>
       <c r="J23" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L23" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M23" s="7">
         <v>1858</v>
@@ -4342,13 +4336,13 @@
         <v>1225078</v>
       </c>
       <c r="O23" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P43E-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P43E-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2282FEA0-C486-4874-BF59-41F7B8739CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7DFB58CD-3006-4D4E-B637-80C7A0021AED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{0A79BAFE-EBDF-4721-BFB9-A405374C3545}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C67E99E7-D563-4AC3-84E8-D61D76DAE59E}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="711" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="167">
   <si>
     <t>Población según el lugar donde le realizaron dicha citología vaginal en 2012 (Tasa respuesta: 31,77%)</t>
   </si>
@@ -67,7 +67,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Servicio sanitario privado</t>
@@ -100,7 +100,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>26,87%</t>
@@ -121,7 +121,7 @@
     <t>77,28%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>26,46%</t>
@@ -142,7 +142,7 @@
     <t>77,52%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>24,32%</t>
@@ -163,7 +163,7 @@
     <t>79,87%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>18,78%</t>
@@ -184,151 +184,196 @@
     <t>85,96%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>7,78%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>92,22%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>14,08%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>23,5%</t>
+  </si>
+  <si>
+    <t>85,92%</t>
+  </si>
+  <si>
+    <t>76,5%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>21,27%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>76,99%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>78,73%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según el lugar donde le realizaron dicha citología vaginal en 2016 (Tasa respuesta: 31,05%)</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>77,46%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>20,48%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>25,07%</t>
+  </si>
+  <si>
+    <t>79,52%</t>
+  </si>
+  <si>
+    <t>74,93%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>20,0%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>80,0%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>11,99%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>14,01%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
   </si>
   <si>
     <t>18,3%</t>
   </si>
   <si>
-    <t>87,0%</t>
+    <t>85,99%</t>
   </si>
   <si>
     <t>81,7%</t>
   </si>
   <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>21,27%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>76,99%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>78,73%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según el lugar donde le realizaron dicha citología vaginal en 2016 (Tasa respuesta: 31,05%)</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>77,46%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>16,73%</t>
-  </si>
-  <si>
-    <t>25,07%</t>
-  </si>
-  <si>
-    <t>79,52%</t>
-  </si>
-  <si>
-    <t>74,93%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>20,0%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>80,0%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>11,99%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>88,01%</t>
-  </si>
-  <si>
-    <t>14,01%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>85,99%</t>
-  </si>
-  <si>
     <t>89,88%</t>
   </si>
   <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>15,2%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>82,06%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>15,74%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
   </si>
   <si>
     <t>16,39%</t>
@@ -352,130 +397,148 @@
     <t>Población según el lugar donde le realizaron dicha citología vaginal en 2023 (Tasa respuesta: 27,66%)</t>
   </si>
   <si>
-    <t>35,69%</t>
-  </si>
-  <si>
-    <t>18,49%</t>
-  </si>
-  <si>
-    <t>58,45%</t>
-  </si>
-  <si>
-    <t>64,31%</t>
-  </si>
-  <si>
-    <t>41,55%</t>
-  </si>
-  <si>
-    <t>81,51%</t>
-  </si>
-  <si>
-    <t>24,74%</t>
-  </si>
-  <si>
-    <t>16,95%</t>
-  </si>
-  <si>
-    <t>32,27%</t>
-  </si>
-  <si>
-    <t>75,26%</t>
-  </si>
-  <si>
-    <t>67,73%</t>
-  </si>
-  <si>
-    <t>83,05%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>32,63%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>76,52%</t>
-  </si>
-  <si>
-    <t>29,53%</t>
-  </si>
-  <si>
-    <t>25,35%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>70,47%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>74,65%</t>
-  </si>
-  <si>
-    <t>22,17%</t>
-  </si>
-  <si>
-    <t>18,55%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>77,83%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>81,45%</t>
-  </si>
-  <si>
-    <t>15,51%</t>
-  </si>
-  <si>
-    <t>12,84%</t>
-  </si>
-  <si>
-    <t>18,34%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>81,66%</t>
-  </si>
-  <si>
-    <t>87,16%</t>
-  </si>
-  <si>
-    <t>24,03%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>73,99%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
+    <t>36,28%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>58,64%</t>
+  </si>
+  <si>
+    <t>63,72%</t>
+  </si>
+  <si>
+    <t>41,36%</t>
+  </si>
+  <si>
+    <t>80,97%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>29,41%</t>
+  </si>
+  <si>
+    <t>81,21%</t>
+  </si>
+  <si>
+    <t>70,59%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>23,65%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>72,02%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>27,93%</t>
+  </si>
+  <si>
+    <t>20,89%</t>
+  </si>
+  <si>
+    <t>32,52%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>67,48%</t>
+  </si>
+  <si>
+    <t>79,11%</t>
+  </si>
+  <si>
+    <t>22,19%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>26,06%</t>
+  </si>
+  <si>
+    <t>77,81%</t>
+  </si>
+  <si>
+    <t>73,94%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>17,1%</t>
+  </si>
+  <si>
+    <t>13,56%</t>
+  </si>
+  <si>
+    <t>21,12%</t>
+  </si>
+  <si>
+    <t>82,9%</t>
+  </si>
+  <si>
+    <t>78,88%</t>
+  </si>
+  <si>
+    <t>86,44%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>18,08%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>81,92%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>19,08%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>80,92%</t>
   </si>
 </sst>
 </file>
@@ -887,8 +950,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E89FFA2F-5E7A-40EC-8491-808722F89487}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4D98FD5-CCC5-47A4-BA00-7D54EF62D1EF}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1763,10 +1826,10 @@
         <v>11</v>
       </c>
       <c r="H19" s="7">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="I19" s="7">
-        <v>36348</v>
+        <v>22039</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>49</v>
@@ -1778,10 +1841,10 @@
         <v>51</v>
       </c>
       <c r="M19" s="7">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="N19" s="7">
-        <v>36348</v>
+        <v>22039</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>49</v>
@@ -1812,10 +1875,10 @@
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>231</v>
+        <v>152</v>
       </c>
       <c r="I20" s="7">
-        <v>243306</v>
+        <v>155969</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>52</v>
@@ -1827,10 +1890,10 @@
         <v>54</v>
       </c>
       <c r="M20" s="7">
-        <v>231</v>
+        <v>152</v>
       </c>
       <c r="N20" s="7">
-        <v>243306</v>
+        <v>155969</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>52</v>
@@ -1861,10 +1924,10 @@
         <v>11</v>
       </c>
       <c r="H21" s="7">
-        <v>263</v>
+        <v>172</v>
       </c>
       <c r="I21" s="7">
-        <v>279654</v>
+        <v>178008</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -1876,10 +1939,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>263</v>
+        <v>172</v>
       </c>
       <c r="N21" s="7">
-        <v>279654</v>
+        <v>178008</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -1893,7 +1956,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -1912,34 +1975,34 @@
         <v>11</v>
       </c>
       <c r="H22" s="7">
-        <v>461</v>
+        <v>12</v>
       </c>
       <c r="I22" s="7">
-        <v>517415</v>
+        <v>14309</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="K22" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L22" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="M22" s="7">
+        <v>12</v>
+      </c>
+      <c r="N22" s="7">
+        <v>14309</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="M22" s="7">
-        <v>461</v>
-      </c>
-      <c r="N22" s="7">
-        <v>517415</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>56</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -1961,34 +2024,34 @@
         <v>11</v>
       </c>
       <c r="H23" s="7">
-        <v>1606</v>
+        <v>79</v>
       </c>
       <c r="I23" s="7">
-        <v>1731609</v>
+        <v>87338</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K23" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="M23" s="7">
+        <v>79</v>
+      </c>
+      <c r="N23" s="7">
+        <v>87338</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="L23" s="7" t="s">
+      <c r="P23" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="M23" s="7">
-        <v>1606</v>
-      </c>
-      <c r="N23" s="7">
-        <v>1731609</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>59</v>
-      </c>
       <c r="Q23" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2010,48 +2073,198 @@
         <v>11</v>
       </c>
       <c r="H24" s="7">
+        <v>91</v>
+      </c>
+      <c r="I24" s="7">
+        <v>101647</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>91</v>
+      </c>
+      <c r="N24" s="7">
+        <v>101647</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="7">
+        <v>461</v>
+      </c>
+      <c r="I25" s="7">
+        <v>517415</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="M25" s="7">
+        <v>461</v>
+      </c>
+      <c r="N25" s="7">
+        <v>517415</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1606</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1731610</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1606</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1731610</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="7">
         <v>2067</v>
       </c>
-      <c r="I24" s="7">
-        <v>2249024</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>2249025</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>2067</v>
       </c>
-      <c r="N24" s="7">
-        <v>2249024</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>61</v>
+      <c r="N27" s="7">
+        <v>2249025</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2064,8 +2277,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67F2B9C1-1267-4B25-95BE-EDBB645E8C5B}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40B21F42-C305-46E1-A194-8C87714E07F3}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2081,7 +2294,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2201,13 +2414,13 @@
         <v>25068</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="M4" s="7">
         <v>25</v>
@@ -2216,13 +2429,13 @@
         <v>25068</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2250,13 +2463,13 @@
         <v>135091</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="M5" s="7">
         <v>138</v>
@@ -2265,13 +2478,13 @@
         <v>135091</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2350,13 +2563,13 @@
         <v>75250</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="M7" s="7">
         <v>74</v>
@@ -2365,13 +2578,13 @@
         <v>75250</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2399,13 +2612,13 @@
         <v>292259</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="M8" s="7">
         <v>304</v>
@@ -2414,13 +2627,13 @@
         <v>292259</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2499,13 +2712,13 @@
         <v>100175</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="M10" s="7">
         <v>97</v>
@@ -2514,13 +2727,13 @@
         <v>100175</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2548,13 +2761,13 @@
         <v>400793</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="M11" s="7">
         <v>404</v>
@@ -2563,13 +2776,13 @@
         <v>400793</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2648,13 +2861,13 @@
         <v>71809</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="M13" s="7">
         <v>65</v>
@@ -2663,13 +2876,13 @@
         <v>71809</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2697,13 +2910,13 @@
         <v>400413</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>372</v>
@@ -2712,13 +2925,13 @@
         <v>400413</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2797,13 +3010,13 @@
         <v>44954</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -2812,13 +3025,13 @@
         <v>44954</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>51</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2846,13 +3059,13 @@
         <v>275874</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="M17" s="7">
         <v>240</v>
@@ -2861,13 +3074,13 @@
         <v>275874</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>53</v>
+        <v>98</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2940,34 +3153,34 @@
         <v>11</v>
       </c>
       <c r="H19" s="7">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I19" s="7">
-        <v>35782</v>
+        <v>25172</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
       <c r="M19" s="7">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="N19" s="7">
-        <v>35782</v>
+        <v>25172</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>93</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2989,34 +3202,34 @@
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>253</v>
+        <v>164</v>
       </c>
       <c r="I20" s="7">
-        <v>296206</v>
+        <v>177040</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="M20" s="7">
-        <v>253</v>
+        <v>164</v>
       </c>
       <c r="N20" s="7">
-        <v>296206</v>
+        <v>177040</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3038,10 +3251,10 @@
         <v>11</v>
       </c>
       <c r="H21" s="7">
-        <v>283</v>
+        <v>187</v>
       </c>
       <c r="I21" s="7">
-        <v>331988</v>
+        <v>202212</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -3053,10 +3266,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>283</v>
+        <v>187</v>
       </c>
       <c r="N21" s="7">
-        <v>331988</v>
+        <v>202212</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -3070,7 +3283,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -3089,34 +3302,34 @@
         <v>11</v>
       </c>
       <c r="H22" s="7">
-        <v>329</v>
+        <v>7</v>
       </c>
       <c r="I22" s="7">
-        <v>353039</v>
+        <v>10610</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="M22" s="7">
-        <v>329</v>
+        <v>7</v>
       </c>
       <c r="N22" s="7">
-        <v>353039</v>
+        <v>10610</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3138,34 +3351,34 @@
         <v>11</v>
       </c>
       <c r="H23" s="7">
-        <v>1711</v>
+        <v>89</v>
       </c>
       <c r="I23" s="7">
-        <v>1800635</v>
+        <v>119167</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M23" s="7">
-        <v>1711</v>
+        <v>89</v>
       </c>
       <c r="N23" s="7">
-        <v>1800635</v>
+        <v>119167</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -3187,48 +3400,198 @@
         <v>11</v>
       </c>
       <c r="H24" s="7">
+        <v>96</v>
+      </c>
+      <c r="I24" s="7">
+        <v>129777</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>96</v>
+      </c>
+      <c r="N24" s="7">
+        <v>129777</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="7">
+        <v>329</v>
+      </c>
+      <c r="I25" s="7">
+        <v>353039</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="M25" s="7">
+        <v>329</v>
+      </c>
+      <c r="N25" s="7">
+        <v>353039</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1711</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1800635</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1711</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1800635</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="7">
         <v>2040</v>
       </c>
-      <c r="I24" s="7">
+      <c r="I27" s="7">
         <v>2153674</v>
       </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>2040</v>
       </c>
-      <c r="N24" s="7">
+      <c r="N27" s="7">
         <v>2153674</v>
       </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>61</v>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3241,8 +3604,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E8C08DA-0518-4FDA-804E-3270184C4621}">
-  <dimension ref="A1:Q25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86BB64CA-2984-4D91-8198-6F54CABDF3B5}">
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3258,7 +3621,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3375,31 +3738,31 @@
         <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>16967</v>
+        <v>15668</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
       </c>
       <c r="N4" s="7">
-        <v>16967</v>
+        <v>15668</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3424,31 +3787,31 @@
         <v>19</v>
       </c>
       <c r="I5" s="7">
-        <v>30567</v>
+        <v>27513</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
       <c r="M5" s="7">
         <v>19</v>
       </c>
       <c r="N5" s="7">
-        <v>30567</v>
+        <v>27513</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>109</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3473,7 +3836,7 @@
         <v>28</v>
       </c>
       <c r="I6" s="7">
-        <v>47534</v>
+        <v>43181</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>19</v>
@@ -3488,7 +3851,7 @@
         <v>28</v>
       </c>
       <c r="N6" s="7">
-        <v>47534</v>
+        <v>43181</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>19</v>
@@ -3524,31 +3887,31 @@
         <v>44</v>
       </c>
       <c r="I7" s="7">
-        <v>49852</v>
+        <v>46018</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
       <c r="M7" s="7">
         <v>44</v>
       </c>
       <c r="N7" s="7">
-        <v>49852</v>
+        <v>46018</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>111</v>
+        <v>126</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>112</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3573,31 +3936,31 @@
         <v>127</v>
       </c>
       <c r="I8" s="7">
-        <v>151690</v>
+        <v>198905</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="M8" s="7">
         <v>127</v>
       </c>
       <c r="N8" s="7">
-        <v>151690</v>
+        <v>198905</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>113</v>
+        <v>128</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3622,7 +3985,7 @@
         <v>171</v>
       </c>
       <c r="I9" s="7">
-        <v>201542</v>
+        <v>244923</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>19</v>
@@ -3637,7 +4000,7 @@
         <v>171</v>
       </c>
       <c r="N9" s="7">
-        <v>201542</v>
+        <v>244923</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>19</v>
@@ -3673,31 +4036,31 @@
         <v>109</v>
       </c>
       <c r="I10" s="7">
-        <v>75904</v>
+        <v>71599</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
       <c r="M10" s="7">
         <v>109</v>
       </c>
       <c r="N10" s="7">
-        <v>75904</v>
+        <v>71599</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>118</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3722,31 +4085,31 @@
         <v>285</v>
       </c>
       <c r="I11" s="7">
-        <v>197163</v>
+        <v>184283</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
       <c r="M11" s="7">
         <v>285</v>
       </c>
       <c r="N11" s="7">
-        <v>197163</v>
+        <v>184283</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>120</v>
+        <v>135</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>121</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3771,7 +4134,7 @@
         <v>394</v>
       </c>
       <c r="I12" s="7">
-        <v>273067</v>
+        <v>255882</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>19</v>
@@ -3786,7 +4149,7 @@
         <v>394</v>
       </c>
       <c r="N12" s="7">
-        <v>273067</v>
+        <v>255882</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>19</v>
@@ -3822,31 +4185,31 @@
         <v>179</v>
       </c>
       <c r="I13" s="7">
-        <v>116157</v>
+        <v>108430</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="M13" s="7">
         <v>179</v>
       </c>
       <c r="N13" s="7">
-        <v>116157</v>
+        <v>108430</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>123</v>
+        <v>138</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3871,31 +4234,31 @@
         <v>408</v>
       </c>
       <c r="I14" s="7">
-        <v>277234</v>
+        <v>279789</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="M14" s="7">
         <v>408</v>
       </c>
       <c r="N14" s="7">
-        <v>277234</v>
+        <v>279789</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>125</v>
+        <v>140</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>126</v>
+        <v>141</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3920,7 +4283,7 @@
         <v>587</v>
       </c>
       <c r="I15" s="7">
-        <v>393391</v>
+        <v>388219</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>19</v>
@@ -3935,7 +4298,7 @@
         <v>587</v>
       </c>
       <c r="N15" s="7">
-        <v>393391</v>
+        <v>388219</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>19</v>
@@ -3971,31 +4334,31 @@
         <v>110</v>
       </c>
       <c r="I16" s="7">
-        <v>68459</v>
+        <v>63086</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
       <c r="M16" s="7">
         <v>110</v>
       </c>
       <c r="N16" s="7">
-        <v>68459</v>
+        <v>63086</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4020,31 +4383,31 @@
         <v>406</v>
       </c>
       <c r="I17" s="7">
-        <v>240345</v>
+        <v>221243</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
       <c r="M17" s="7">
         <v>406</v>
       </c>
       <c r="N17" s="7">
-        <v>240345</v>
+        <v>221243</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>131</v>
+        <v>146</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>132</v>
+        <v>147</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>133</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4069,7 +4432,7 @@
         <v>516</v>
       </c>
       <c r="I18" s="7">
-        <v>308804</v>
+        <v>284329</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>19</v>
@@ -4084,7 +4447,7 @@
         <v>516</v>
       </c>
       <c r="N18" s="7">
-        <v>308804</v>
+        <v>284329</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>19</v>
@@ -4117,34 +4480,34 @@
         <v>11</v>
       </c>
       <c r="H19" s="7">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="I19" s="7">
-        <v>60217</v>
+        <v>33765</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
       <c r="M19" s="7">
-        <v>109</v>
+        <v>67</v>
       </c>
       <c r="N19" s="7">
-        <v>60217</v>
+        <v>33765</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>136</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4166,34 +4529,34 @@
         <v>11</v>
       </c>
       <c r="H20" s="7">
-        <v>613</v>
+        <v>338</v>
       </c>
       <c r="I20" s="7">
-        <v>328078</v>
+        <v>163726</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="M20" s="7">
-        <v>613</v>
+        <v>338</v>
       </c>
       <c r="N20" s="7">
-        <v>328078</v>
+        <v>163726</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>137</v>
+        <v>152</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>138</v>
+        <v>153</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>139</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4215,10 +4578,10 @@
         <v>11</v>
       </c>
       <c r="H21" s="7">
-        <v>722</v>
+        <v>405</v>
       </c>
       <c r="I21" s="7">
-        <v>388295</v>
+        <v>197491</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>19</v>
@@ -4230,10 +4593,10 @@
         <v>19</v>
       </c>
       <c r="M21" s="7">
-        <v>722</v>
+        <v>405</v>
       </c>
       <c r="N21" s="7">
-        <v>388295</v>
+        <v>197491</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>19</v>
@@ -4247,7 +4610,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
@@ -4266,34 +4629,34 @@
         <v>11</v>
       </c>
       <c r="H22" s="7">
-        <v>560</v>
+        <v>42</v>
       </c>
       <c r="I22" s="7">
-        <v>387556</v>
+        <v>21444</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
       <c r="M22" s="7">
-        <v>560</v>
+        <v>42</v>
       </c>
       <c r="N22" s="7">
-        <v>387556</v>
+        <v>21444</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>140</v>
+        <v>155</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>141</v>
+        <v>156</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>142</v>
+        <v>157</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4315,34 +4678,34 @@
         <v>11</v>
       </c>
       <c r="H23" s="7">
-        <v>1858</v>
+        <v>275</v>
       </c>
       <c r="I23" s="7">
-        <v>1225078</v>
+        <v>135284</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="M23" s="7">
-        <v>1858</v>
+        <v>275</v>
       </c>
       <c r="N23" s="7">
-        <v>1225078</v>
+        <v>135284</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4364,48 +4727,198 @@
         <v>11</v>
       </c>
       <c r="H24" s="7">
+        <v>317</v>
+      </c>
+      <c r="I24" s="7">
+        <v>156728</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M24" s="7">
+        <v>317</v>
+      </c>
+      <c r="N24" s="7">
+        <v>156728</v>
+      </c>
+      <c r="O24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q24" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C25" s="7">
+        <v>0</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="7">
+        <v>560</v>
+      </c>
+      <c r="I25" s="7">
+        <v>360010</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="M25" s="7">
+        <v>560</v>
+      </c>
+      <c r="N25" s="7">
+        <v>360010</v>
+      </c>
+      <c r="O25" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q25" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="7">
+        <v>0</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1858</v>
+      </c>
+      <c r="I26" s="7">
+        <v>1210742</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="L26" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="M26" s="7">
+        <v>1858</v>
+      </c>
+      <c r="N26" s="7">
+        <v>1210742</v>
+      </c>
+      <c r="O26" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q26" s="7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="7">
+        <v>0</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H27" s="7">
         <v>2418</v>
       </c>
-      <c r="I24" s="7">
-        <v>1612634</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="M24" s="7">
+      <c r="I27" s="7">
+        <v>1570752</v>
+      </c>
+      <c r="J27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="M27" s="7">
         <v>2418</v>
       </c>
-      <c r="N24" s="7">
-        <v>1612634</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>61</v>
+      <c r="N27" s="7">
+        <v>1570752</v>
+      </c>
+      <c r="O27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="P27" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A25:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
